--- a/FiguresAndTables/EmpiricalResults.xlsx
+++ b/FiguresAndTables/EmpiricalResults.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26230"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djhwueng/GitHub/BMhyb_paper/FiguresAndTables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="EmpiricalResults.csv" sheetId="1" r:id="rId1"/>
@@ -211,7 +216,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -275,20 +280,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -296,7 +294,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +302,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -312,7 +310,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -320,7 +318,13 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -396,90 +400,72 @@
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -488,50 +474,73 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="19" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -856,554 +865,559 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="17.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="13.1640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="17.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="21" customFormat="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="21" customFormat="1" ht="16" thickBot="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="27" t="s">
+    <row r="2" spans="1:14" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="14">
         <v>23.0766391715506</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="13">
         <v>3</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="14">
         <v>0</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="14">
         <v>0.52477473955201703</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="2"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="25"/>
+      <c r="B4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>23.089068122438601</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>2.7995614590882498</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>0.129436235957851</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2"/>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>22.304309638225401</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>4</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <v>1.23004449066178</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>0.28370837377026698</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="3"/>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>22.304341618633199</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>5</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>4.2690694904384401</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <v>6.20806507198658E-2</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16" thickBot="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="6" t="s">
+    <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="18">
         <v>72.586879106155195</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="17">
         <v>3</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="18">
         <v>4.2839915329684297</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="18">
         <v>8.4050456996230996E-2</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="17"/>
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
+      <c r="B12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>72.296194730032596</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <v>4</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <v>6.0069998851004396</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="5">
         <v>3.5513507638456697E-2</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="17"/>
-      <c r="B13" s="25" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
+      <c r="B13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="20">
         <v>69.292694787482404</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="19">
         <v>4</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="20">
         <v>0</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="20">
         <v>0.715808779474715</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="18"/>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="29"/>
+      <c r="B14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="9">
         <v>69.566756622345196</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>5</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="9">
         <v>2.9394584006830402</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="9">
         <v>0.16462725589059701</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="10" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
@@ -1415,19 +1429,9 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>